--- a/ML4RM_Class0.xlsx
+++ b/ML4RM_Class0.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ML4RM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ML4RM/Classes/Dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069170C6-6979-2040-B92B-71A2CFAF787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D446E-40D0-5448-AAEC-D6FC4DD10AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DDE800B3-39F1-2E49-A58F-AA553F4E7E93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="16740" activeTab="3" xr2:uid="{DDE800B3-39F1-2E49-A58F-AA553F4E7E93}"/>
   </bookViews>
   <sheets>
     <sheet name="Class0" sheetId="6" r:id="rId1"/>
-    <sheet name="Goals" sheetId="11" r:id="rId2"/>
-    <sheet name="Themes" sheetId="8" r:id="rId3"/>
-    <sheet name="Topics" sheetId="9" r:id="rId4"/>
-    <sheet name="Theories" sheetId="10" r:id="rId5"/>
-    <sheet name="Models" sheetId="12" r:id="rId6"/>
+    <sheet name="Goals1" sheetId="16" r:id="rId2"/>
+    <sheet name="Goals2" sheetId="11" r:id="rId3"/>
+    <sheet name="Themes" sheetId="8" r:id="rId4"/>
+    <sheet name="Models" sheetId="12" r:id="rId5"/>
+    <sheet name="Concepts" sheetId="10" r:id="rId6"/>
     <sheet name="Books_Videos" sheetId="13" r:id="rId7"/>
     <sheet name="Software" sheetId="14" r:id="rId8"/>
     <sheet name="ML_Overview1" sheetId="3" r:id="rId9"/>
     <sheet name="ML_Overview2" sheetId="2" r:id="rId10"/>
     <sheet name="Grading" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="autoNoTable" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Cluster Analysis</t>
   </si>
@@ -79,9 +79,6 @@
     <t>PCA</t>
   </si>
   <si>
-    <t>Regularization</t>
-  </si>
-  <si>
     <t>Class0</t>
   </si>
   <si>
@@ -136,39 +133,12 @@
     <t>Support Vector Machines</t>
   </si>
   <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
     <t>Out of Sample Testing</t>
   </si>
   <si>
-    <t>Model Selection</t>
-  </si>
-  <si>
     <t>Themes</t>
   </si>
   <si>
-    <t>The democratization of analytics.  Theory is hard, testing is easy.</t>
-  </si>
-  <si>
-    <t>The fight for the simple model.  Sometimes simple is hard.</t>
-  </si>
-  <si>
-    <t>Model tuning.  As simple as possible, but not simpler.</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>Stepwise Regression</t>
-  </si>
-  <si>
-    <t>Variable Importance</t>
-  </si>
-  <si>
-    <t>KNN &amp; PCA</t>
-  </si>
-  <si>
     <t>Degrees of freedom as unique venues of description.</t>
   </si>
   <si>
@@ -220,33 +190,6 @@
     <t>prediction intervals</t>
   </si>
   <si>
-    <t>How is machine learning used in finance</t>
-  </si>
-  <si>
-    <t>What are the benefits of using machine learning</t>
-  </si>
-  <si>
-    <t>What are the tradoffs of using model X?</t>
-  </si>
-  <si>
-    <t>K Nearest Neighbors - KNN</t>
-  </si>
-  <si>
-    <t>Generalized Additive Models - GAMs</t>
-  </si>
-  <si>
-    <t>Classification Model Diagnostics</t>
-  </si>
-  <si>
-    <t>Goals</t>
-  </si>
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t>Theories</t>
-  </si>
-  <si>
     <t>Decision Trees</t>
   </si>
   <si>
@@ -280,9 +223,6 @@
     <t>ML_Overview2</t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
     <t>An Introduction to Statistical Learning</t>
   </si>
   <si>
@@ -341,6 +281,84 @@
   </si>
   <si>
     <t>Grouping</t>
+  </si>
+  <si>
+    <t>Get the low hanging fruit</t>
+  </si>
+  <si>
+    <t>Understand what the latest tools are</t>
+  </si>
+  <si>
+    <t>Identify and adapt to challenges in datasets</t>
+  </si>
+  <si>
+    <t>Add value on the job</t>
+  </si>
+  <si>
+    <t>Successfully answer interview questions</t>
+  </si>
+  <si>
+    <t>Tune models</t>
+  </si>
+  <si>
+    <t>Quality test any model</t>
+  </si>
+  <si>
+    <t>Select models</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Generalized Adversarial Networks</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>What are the tradoffs of using model A vs Model B?</t>
+  </si>
+  <si>
+    <t>What are the benefits of using machine learning?</t>
+  </si>
+  <si>
+    <t>How is machine learning used in finance?</t>
+  </si>
+  <si>
+    <t>The fight for the simple model</t>
+  </si>
+  <si>
+    <t>The democratization of analytics: Theory is hard; Testing is easy</t>
+  </si>
+  <si>
+    <t>The Bias Variance Tradeoff</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>Generalized Additive Models</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/</t>
+  </si>
+  <si>
+    <t>Goals1</t>
+  </si>
+  <si>
+    <t>Goals2</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Books_Videos</t>
+  </si>
+  <si>
+    <t>Hierarchical Cluster Analysis</t>
+  </si>
+  <si>
+    <t>Tools don't matter; Ideas do</t>
   </si>
 </sst>
 </file>
@@ -773,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BDC5B1-4498-A242-8FD7-99000189F065}">
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -784,57 +802,57 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +874,7 @@
     <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -915,16 +933,18 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -938,11 +958,11 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -951,7 +971,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -960,7 +980,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -985,68 +1005,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C3" s="9">
         <v>0.3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9">
         <v>0.2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>0.15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9">
         <v>0.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9">
         <v>0.05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +1075,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C3CFC5-BCFA-784D-9097-5EBCF67C1868}">
-  <dimension ref="B2:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F6C2B8-7D3B-7A4C-BF3E-D003D6C4390D}">
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,74 +1085,34 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +1121,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C3CFC5-BCFA-784D-9097-5EBCF67C1868}">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2089B023-B0E7-0945-8E8B-2681F4FF99C6}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1153,117 +1254,31 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E1D138-9282-2C4E-A723-976F9EA1B33A}">
-  <dimension ref="B2:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1271,71 +1286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D37B80-ED1D-CD4F-93DE-4AEBB86D73A5}">
-  <dimension ref="B2:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD0F3B-4674-0044-8B97-55D12D9CBF8D}">
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD0F3B-4674-0044-8B97-55D12D9CBF8D}">
-  <dimension ref="B2:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1354,52 +1310,125 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D37B80-ED1D-CD4F-93DE-4AEBB86D73A5}">
+  <dimension ref="B2:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1420,17 +1449,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741E2170-730A-4443-91B8-03F46E97F80E}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,32 +1485,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1489,6 +1523,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F446D806-0E70-9248-8962-3FF4317AD7A4}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{368919C4-1911-F645-AD3E-F0686009F4B0}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{462ABD31-80D6-1F46-B2C4-925A17437F83}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{AA5E1741-B9AD-6142-8AAE-7A6F765B20B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1512,57 +1547,57 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
